--- a/pangea/catalogos_capII_mar_22_2021.xlsx
+++ b/pangea/catalogos_capII_mar_22_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41672F57-AFBE-4B03-8041-6A808A9D22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A3AB8F-8C6B-45EC-89B2-38190B482409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-84" windowWidth="23256" windowHeight="12720" xr2:uid="{D5E2090E-4DC5-412E-AC60-D93F4347DA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D5E2090E-4DC5-412E-AC60-D93F4347DA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="catálogos" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="105">
   <si>
     <t xml:space="preserve">Datos generales del componente </t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>¿Cuáles son?</t>
+  </si>
+  <si>
+    <t>pendiente</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -410,13 +422,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,11 +744,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9E8254-D393-4638-B959-62062D3B4679}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +765,7 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,7 +791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -794,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -808,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -825,7 +839,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -839,7 +856,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -853,7 +873,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -867,7 +890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -884,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -898,7 +921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -915,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -929,7 +952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
@@ -946,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -960,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -972,7 +995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -989,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1030,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1023,7 +1046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1149,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1142,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1186,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1179,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1324,7 +1347,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1340,7 +1363,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1631,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I39" xr:uid="{FC8CF568-3DCD-407E-8CEE-2735EF8756EA}"/>
+  <autoFilter ref="B1:I39" xr:uid="{FC8CF568-3DCD-407E-8CEE-2735EF8756EA}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Catálogo"/>
+        <filter val="Catálogo de abreviaturas"/>
+        <filter val="Catálogo por fase"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/pangea/catalogos_capII_mar_22_2021.xlsx
+++ b/pangea/catalogos_capII_mar_22_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A3AB8F-8C6B-45EC-89B2-38190B482409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C48585-E36D-42CB-977C-8A8A1AB603A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D5E2090E-4DC5-412E-AC60-D93F4347DA8F}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -808,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>103</v>
       </c>
@@ -856,7 +856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>104</v>
       </c>
@@ -873,7 +873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>104</v>
       </c>
@@ -890,7 +890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -921,7 +921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -952,7 +952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -995,7 +995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>102</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>102</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>102</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>102</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1634,9 +1634,10 @@
   <autoFilter ref="B1:I39" xr:uid="{FC8CF568-3DCD-407E-8CEE-2735EF8756EA}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Catálogo"/>
-        <filter val="Catálogo de abreviaturas"/>
-        <filter val="Catálogo por fase"/>
+        <filter val="Formulario-datos"/>
+        <filter val="Formulario-datos-abreviaturas"/>
+        <filter val="Formulario-texto-figuras"/>
+        <filter val="PNG"/>
       </filters>
     </filterColumn>
   </autoFilter>
